--- a/Example KMD_2.xlsx
+++ b/Example KMD_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martazrno/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F1CCFA-E06E-4D4C-A5BF-84FFBF244682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2694B5-5D0E-BE4B-B36B-E30113E7A0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{2109671E-7AC7-5445-8847-61943D593BF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Intensity</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Y ion</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0CD96-11B5-B142-96E2-9DBFA919D290}">
-  <dimension ref="A1:D1677"/>
+  <dimension ref="A1:E1677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -421,8 +424,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56.814776469999998</v>
       </c>
@@ -435,8 +441,11 @@
       <c r="D2">
         <v>1823.899621</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1025.3535260000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>57.130576470000001</v>
       </c>
@@ -449,8 +458,11 @@
       <c r="D3">
         <v>1667.798511</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1467.523496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>57.689276470000003</v>
       </c>
@@ -463,8 +475,11 @@
       <c r="D4">
         <v>1570.7457509999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1570.7457509999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>57.817776469999998</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="D5">
         <v>1467.7365609999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1049.5149510000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>57.915676470000001</v>
       </c>
@@ -491,8 +509,11 @@
       <c r="D6">
         <v>1320.6681510000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>506.29730110000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>59.218976470000001</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="D7">
         <v>1233.636121</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>147.11280110000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>59.760276470000001</v>
       </c>
@@ -520,7 +544,7 @@
         <v>1162.599011</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>62.332676470000003</v>
       </c>
@@ -534,7 +558,7 @@
         <v>1049.5149510000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>63.745876469999999</v>
       </c>
@@ -548,7 +572,7 @@
         <v>948.46727109999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64.417276470000004</v>
       </c>
@@ -562,7 +586,7 @@
         <v>851.41451110000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>65.100176469999994</v>
       </c>
@@ -576,7 +600,7 @@
         <v>736.38757109999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>65.59007647</v>
       </c>
@@ -590,7 +614,7 @@
         <v>607.34498110000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>69.669876470000005</v>
       </c>
@@ -604,7 +628,7 @@
         <v>506.29730110000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>71.443176469999997</v>
       </c>
@@ -618,7 +642,7 @@
         <v>343.23397110000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>73.127976469999993</v>
       </c>
